--- a/src/test/java/ExcelFiles/tollPaysAppKeywords.xlsx
+++ b/src/test/java/ExcelFiles/tollPaysAppKeywords.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Automation_Projects\Web Testing\Seller Optics\src\test\java\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Automation_Projects\Web Testing\TollPays\src\test\java\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,8 @@
   <sheets>
     <sheet name="Sign In Module" sheetId="1" r:id="rId1"/>
     <sheet name="Sign Up Module" sheetId="2" r:id="rId2"/>
+    <sheet name="FAQ's" sheetId="3" r:id="rId3"/>
+    <sheet name="Contact Us" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -73,12 +75,24 @@
   </si>
   <si>
     <t>Continue to Sign Up Screen</t>
+  </si>
+  <si>
+    <t>//a[@class='form-control frmSbt ajax']</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'Contact Us')]</t>
+  </si>
+  <si>
+    <t>Contact Us Button</t>
+  </si>
+  <si>
+    <t>Submit Button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,7 +460,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,5 +575,110 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/java/ExcelFiles/tollPaysAppKeywords.xlsx
+++ b/src/test/java/ExcelFiles/tollPaysAppKeywords.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="330" yWindow="330" windowWidth="18000" windowHeight="9480" activeTab="1"/>
+    <workbookView xWindow="330" yWindow="330" windowWidth="18000" windowHeight="9480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sign In Module" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -83,10 +83,34 @@
     <t>//a[contains(text(),'Contact Us')]</t>
   </si>
   <si>
-    <t>Contact Us Button</t>
-  </si>
-  <si>
-    <t>Submit Button</t>
+    <t>//select[@id='subject']</t>
+  </si>
+  <si>
+    <t>//select[@id='account_type']</t>
+  </si>
+  <si>
+    <t>account_type</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>//input[@id='email']</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>//textarea[@id='message']</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>contact_us</t>
+  </si>
+  <si>
+    <t>submit</t>
   </si>
 </sst>
 </file>
@@ -524,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -627,17 +651,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -656,7 +681,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -666,19 +691,61 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/java/ExcelFiles/tollPaysAppKeywords.xlsx
+++ b/src/test/java/ExcelFiles/tollPaysAppKeywords.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -111,13 +111,28 @@
   </si>
   <si>
     <t>submit</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>stayseated01@gmail.com</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Please respond ASAP!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +145,14 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -155,10 +178,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -167,8 +191,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -651,16 +678,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="35.85546875" customWidth="1"/>
   </cols>
@@ -744,8 +771,39 @@
         <v>14</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/java/ExcelFiles/tollPaysAppKeywords.xlsx
+++ b/src/test/java/ExcelFiles/tollPaysAppKeywords.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -56,15 +56,6 @@
     <t>Sign In Button</t>
   </si>
   <si>
-    <t>//*[@id="doLogin"]/div[2]/div[1]/input</t>
-  </si>
-  <si>
-    <t>//*[@id="doLogin"]/div[2]/div[2]/input</t>
-  </si>
-  <si>
-    <t>//*[@id="doLogin"]/div[2]/div[4]/div/button</t>
-  </si>
-  <si>
     <t>//a[contains(text(),'Sign Up')]</t>
   </si>
   <si>
@@ -126,6 +117,36 @@
   </si>
   <si>
     <t>Please respond ASAP!</t>
+  </si>
+  <si>
+    <t>email address</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>stayseated05@gmail.com</t>
+  </si>
+  <si>
+    <t>1111111A</t>
+  </si>
+  <si>
+    <t>Sign In Submit Button</t>
+  </si>
+  <si>
+    <t>button_signin</t>
+  </si>
+  <si>
+    <t>loginid</t>
+  </si>
+  <si>
+    <t>//input[@id='password']</t>
+  </si>
+  <si>
+    <t>//input[@id='loginid']</t>
+  </si>
+  <si>
+    <t>//button[@class='btn btn-primary smtBtn ajax']</t>
   </si>
 </sst>
 </file>
@@ -508,20 +529,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -534,40 +559,71 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -602,22 +658,22 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -681,7 +737,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,67 +764,67 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -777,7 +833,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -785,18 +841,18 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/ExcelFiles/tollPaysAppKeywords.xlsx
+++ b/src/test/java/ExcelFiles/tollPaysAppKeywords.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="330" yWindow="330" windowWidth="18000" windowHeight="9480" activeTab="3"/>
+    <workbookView xWindow="330" yWindow="330" windowWidth="18000" windowHeight="9480"/>
   </bookViews>
   <sheets>
     <sheet name="Sign In Module" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -125,12 +125,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>stayseated05@gmail.com</t>
-  </si>
-  <si>
-    <t>1111111A</t>
-  </si>
-  <si>
     <t>Sign In Submit Button</t>
   </si>
   <si>
@@ -147,6 +141,9 @@
   </si>
   <si>
     <t>//button[@class='btn btn-primary smtBtn ajax']</t>
+  </si>
+  <si>
+    <t>shahzaib</t>
   </si>
 </sst>
 </file>
@@ -531,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,16 +567,16 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -591,23 +588,23 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
-        <v>31</v>
+      <c r="G3">
+        <v>123456</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -615,12 +612,12 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId1" display="stayseated05@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
@@ -736,7 +733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
